--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/20/seed1/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.45</v>
+        <v>12.962</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>-20.846</v>
       </c>
       <c r="B4" t="n">
-        <v>6.934</v>
+        <v>7.173999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>11.64</v>
+        <v>12.977</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.353999999999999</v>
+        <v>6.633</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.07</v>
+        <v>-21.14</v>
       </c>
       <c r="B6" t="n">
-        <v>7.504</v>
+        <v>6.816000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.674</v>
+        <v>-21.118</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.112</v>
+        <v>-21.337</v>
       </c>
       <c r="B8" t="n">
-        <v>5.938</v>
+        <v>6.104000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.99</v>
+        <v>13.018</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>12.806</v>
+        <v>12.774</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.948</v>
+        <v>12.964</v>
       </c>
     </row>
     <row r="15">
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.27</v>
+        <v>-20.99</v>
       </c>
       <c r="B16" t="n">
-        <v>5.6</v>
+        <v>6.495</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.478</v>
+        <v>12.596</v>
       </c>
     </row>
     <row r="19">
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.208</v>
+        <v>-21.86</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.766</v>
+        <v>-20.921</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.600000000000001</v>
+        <v>6.569</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>12.806</v>
+        <v>12.791</v>
       </c>
     </row>
   </sheetData>
